--- a/biology/Zoologie/Aphis_glycines/Aphis_glycines.xlsx
+++ b/biology/Zoologie/Aphis_glycines/Aphis_glycines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphis glycines (le puceron du soja) est une espèce d'insectes hémiptères de la famille des Aphididae, originaire d'Asie.
 Le cycle de vie de ce puceron se déroule sur deux types de plantes, des arbustes du genre Rhamnus (hôtes primaires) et le soja (Glycine max), hôte secondaire.
